--- a/projeck1/構築.xlsx
+++ b/projeck1/構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\React\projeck1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9B27A-D5F7-423E-A215-F9235BA03F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF22FA3-A2F8-49B8-812C-44EA76F5870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="288" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>index.js</t>
     <phoneticPr fontId="1"/>
@@ -49,6 +49,78 @@
   </si>
   <si>
     <t>C:\code\React\projeck1\src\routers\IndexRouter.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\login\Login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewsSandBox.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\sandbox\NewsSandBox.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopHeader.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\components\sandbox\TopHeader.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SideMenu.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\components\sandbox\SideMenu.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\sandbox\home\Home.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nopromission.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\sandbox\nopromission\Nopromission.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RightList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\sandbox\right-manage\RightList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoleList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\sandbox\right-manage\RoleList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\code\React\projeck1\src\vierws\sandbox\user-mange\UserList.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -56,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +143,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -88,14 +190,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -269,6 +536,196 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 下 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859CD55C-D06F-4DC8-AF6E-C4DD293898A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646420" y="3291840"/>
+          <a:ext cx="144780" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192959</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449958</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 下 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6967B3A4-3DEC-417D-8349-4073CE225DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4376842">
+          <a:off x="3577303" y="2139505"/>
+          <a:ext cx="193912" cy="2939239"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358139</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>478970</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右中かっこ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B80169-820B-4637-9122-1FFDE8904055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6756218" y="763088"/>
+          <a:ext cx="822960" cy="8219803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 32934"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -564,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6952623F-10F7-44E8-8EAA-AC611D61AB8B}">
-  <dimension ref="I3:I14"/>
+  <dimension ref="C3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -602,9 +1059,354 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="18.600000000000001" thickBot="1"/>
+    <row r="25" spans="3:18" ht="19.2" thickTop="1" thickBot="1">
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="L25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="P25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="3:18" ht="18.600000000000001" thickTop="1">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="P26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="3:18">
+      <c r="D27" s="9"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="10"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="D28" s="9"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="10"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="10"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="3:18">
+      <c r="D29" s="9"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="10"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="10"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="D30" s="9"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="10"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="D31" s="9"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="10"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="D32" s="9"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="10"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="4:18">
+      <c r="D33" s="9"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="10"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="4:18">
+      <c r="D34" s="9"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="10"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="4:18" ht="18.600000000000001" thickBot="1">
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="13"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="4:18" ht="18.600000000000001" thickTop="1"/>
+    <row r="37" spans="4:18" ht="18.600000000000001" thickBot="1"/>
+    <row r="38" spans="4:18" ht="19.2" thickTop="1" thickBot="1">
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="L38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="P38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="4:18" ht="18.600000000000001" thickTop="1">
+      <c r="D39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="L39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="P39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="4:18">
+      <c r="D40" s="9"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="10"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="10"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="4:18">
+      <c r="D41" s="9"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="10"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="10"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="4:18">
+      <c r="D42" s="9"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="10"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="10"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="4:18">
+      <c r="D43" s="9"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="10"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="10"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="4:18">
+      <c r="D44" s="9"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="10"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="4:18">
+      <c r="D45" s="9"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="10"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="10"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="4:18">
+      <c r="D46" s="9"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="10"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="10"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="4:18">
+      <c r="D47" s="9"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="10"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="10"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="4:18" ht="18.600000000000001" thickBot="1">
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R35"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F48"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N48"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R48"/>
+    <mergeCell ref="D26:F35"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J35"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N35"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H25" r:id="rId1" xr:uid="{21AF8812-B4F0-451A-A719-011077C7ECB5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>